--- a/FICmanual.xlsx
+++ b/FICmanual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juann\OneDrive\Documents\Javeriana\Tesis\ScrapingFichas-main\ScrapingFichas-main\DescargarLinks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juann\OneDrive\Documents\Javeriana\Tesis\ScrapingFichas-main\ScrapingFichas-main\ScrapingFichas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99618392-DC78-4B73-BAA2-69E85AF630E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215A022-2E5E-47AD-88CE-7BF77C133D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E88A1655-9061-4505-87BA-5202B1618AAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
   <si>
     <t>Bancolombia</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>https://www.fidubogota.com/fiduaccion</t>
+  </si>
+  <si>
+    <t>Progresion Renta</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +684,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -695,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -703,6 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1038,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7543AB1E-33CF-4EAF-8E02-B187A0443906}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1171,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B10" t="s">
@@ -1769,6 +1779,9 @@
       <c r="A63" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
@@ -1807,22 +1820,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1</v>
+      <c r="A67" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -1830,10 +1837,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -1841,147 +1848,147 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>64</v>
       </c>
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>68</v>
       </c>
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>70</v>
       </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>69</v>
+      <c r="E79" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>78</v>
+      <c r="E80" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>79</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" t="s">
-        <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -1989,10 +1996,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -2000,32 +2007,32 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -2033,80 +2040,80 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -2114,10 +2121,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -2125,10 +2132,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2136,10 +2143,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -2147,21 +2154,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>105</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" t="s">
-        <v>107</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -2169,10 +2176,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -2180,10 +2187,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -2191,10 +2198,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -2202,10 +2209,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2213,10 +2220,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -2224,10 +2231,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -2235,21 +2242,32 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>121</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" xr:uid="{C5BB177C-2F4B-4908-BEC8-7C69E4E092A8}"/>
-    <hyperlink ref="B89" r:id="rId2" xr:uid="{CAC3A1DC-B378-4B5A-9AA1-38BDEBA4C139}"/>
+    <hyperlink ref="B90" r:id="rId2" xr:uid="{CAC3A1DC-B378-4B5A-9AA1-38BDEBA4C139}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{5DF848F5-7757-4BB0-BE2C-AEF975C53CB4}"/>
-    <hyperlink ref="B73" r:id="rId4" display="https://banco.itau.co/web/personas/inversiones/fondo-corto-plazo" xr:uid="{35D14042-BC36-4A33-9837-551B85A4289D}"/>
+    <hyperlink ref="B74" r:id="rId4" display="https://banco.itau.co/web/personas/inversiones/fondo-corto-plazo" xr:uid="{35D14042-BC36-4A33-9837-551B85A4289D}"/>
     <hyperlink ref="B34" r:id="rId5" xr:uid="{4ECDF3B1-B63D-43B1-AC03-F28A551CCB30}"/>
     <hyperlink ref="B35" r:id="rId6" xr:uid="{D17B9DCD-8B1F-4BC8-95D8-43AAB2E80DC1}"/>
     <hyperlink ref="B36" r:id="rId7" xr:uid="{B8E6A040-92BC-4559-87A1-BBAF6B598B7B}"/>

--- a/FICmanual.xlsx
+++ b/FICmanual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juann\OneDrive\Documents\Javeriana\Tesis\ScrapingFichas-main\ScrapingFichas-main\ScrapingFichas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215A022-2E5E-47AD-88CE-7BF77C133D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC80260-62D6-46D4-957C-C80C4100B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E88A1655-9061-4505-87BA-5202B1618AAC}"/>
   </bookViews>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7543AB1E-33CF-4EAF-8E02-B187A0443906}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2084,7 @@
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D91" t="s">
@@ -2098,7 +2098,7 @@
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D92" t="s">
@@ -2112,7 +2112,7 @@
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D93" t="s">
@@ -2123,7 +2123,7 @@
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D94" t="s">
@@ -2134,7 +2134,7 @@
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D95" t="s">
@@ -2145,7 +2145,7 @@
       <c r="A96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D96" t="s">
@@ -2156,7 +2156,7 @@
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D97" t="s">
@@ -2167,7 +2167,7 @@
       <c r="A98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D98" t="s">
@@ -2178,7 +2178,7 @@
       <c r="A99" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D99" t="s">
@@ -2189,7 +2189,7 @@
       <c r="A100" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D100" t="s">
@@ -2200,7 +2200,7 @@
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D101" t="s">
@@ -2211,7 +2211,7 @@
       <c r="A102" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D102" t="s">
@@ -2222,7 +2222,7 @@
       <c r="A103" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D103" t="s">
@@ -2233,7 +2233,7 @@
       <c r="A104" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D104" t="s">
@@ -2244,7 +2244,7 @@
       <c r="A105" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D105" t="s">
@@ -2255,7 +2255,7 @@
       <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D106" t="s">
@@ -2275,6 +2275,22 @@
     <hyperlink ref="B38" r:id="rId9" xr:uid="{5BEC7ABE-C180-4D26-950B-EB3258BBA8E5}"/>
     <hyperlink ref="B39" r:id="rId10" xr:uid="{24784703-9EE1-486B-BF42-D0A3F12D317A}"/>
     <hyperlink ref="B40" r:id="rId11" xr:uid="{E56FE9A2-ABE1-4D37-A481-1297C2A558D2}"/>
+    <hyperlink ref="B91" r:id="rId12" xr:uid="{8CA878D1-43C2-4CC6-8AF4-3B45969249E2}"/>
+    <hyperlink ref="B92" r:id="rId13" xr:uid="{8CED2032-EE2F-4091-B684-E5B278DD916E}"/>
+    <hyperlink ref="B93" r:id="rId14" xr:uid="{FBCD77CD-4D0E-4443-AD74-3A382FB267C7}"/>
+    <hyperlink ref="B94" r:id="rId15" xr:uid="{B5D3063C-0F0C-4289-954F-9C23419E855E}"/>
+    <hyperlink ref="B95" r:id="rId16" xr:uid="{4A122B4E-5457-43B1-B1BE-F246FD1E275C}"/>
+    <hyperlink ref="B96" r:id="rId17" xr:uid="{18DF4C54-DF4A-45B5-A904-28D51CEA6460}"/>
+    <hyperlink ref="B97" r:id="rId18" xr:uid="{AEA14052-498D-4096-BFBB-2710E2B2B501}"/>
+    <hyperlink ref="B98" r:id="rId19" xr:uid="{6F20AEA4-8DED-4688-AA29-EAE98BB36260}"/>
+    <hyperlink ref="B99" r:id="rId20" xr:uid="{4AEEC0BB-8C90-44C0-8407-F9822E94FD0D}"/>
+    <hyperlink ref="B100" r:id="rId21" xr:uid="{83E864C3-31CF-4701-950B-3B4B73375F6D}"/>
+    <hyperlink ref="B101" r:id="rId22" xr:uid="{09DE1379-D803-4A2C-9A41-41029DC03436}"/>
+    <hyperlink ref="B102" r:id="rId23" xr:uid="{72614A3D-F4E2-4056-A57B-DB5A612BDA01}"/>
+    <hyperlink ref="B103" r:id="rId24" xr:uid="{C7082392-E449-44E7-BFDF-9268F47E635F}"/>
+    <hyperlink ref="B104" r:id="rId25" xr:uid="{9874D0F9-6F9A-4DB2-95D8-AFD67A4162E7}"/>
+    <hyperlink ref="B105" r:id="rId26" xr:uid="{11B2A6BA-C2D0-4016-9C39-F6D7D16EA16E}"/>
+    <hyperlink ref="B106" r:id="rId27" xr:uid="{5BEF3F52-EFED-4938-B9EE-524A49B9D2D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FICmanual.xlsx
+++ b/FICmanual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juann\OneDrive\Documents\Javeriana\Tesis\ScrapingFichas-main\ScrapingFichas-main\ScrapingFichas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC80260-62D6-46D4-957C-C80C4100B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B47D23-B270-45B6-AA75-483160E93E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E88A1655-9061-4505-87BA-5202B1618AAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="195">
   <si>
     <t>Bancolombia</t>
   </si>
@@ -404,9 +404,6 @@
     <t>https://www.credicorpcapital.com/Colombia/Neg/GA/Paginas/CCDE.aspx?c=1</t>
   </si>
   <si>
-    <t>Fondo Itaú Corto Plazo - Banco Itaú Colombia - Banco Itaú</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -623,7 +620,7 @@
     <t>https://www.fidubogota.com/fiduaccion</t>
   </si>
   <si>
-    <t>Progresion Renta</t>
+    <t>https://banco.itau.co/web/personas/inversiones/fondo-corto-plazo</t>
   </si>
 </sst>
 </file>
@@ -647,7 +644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +681,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -704,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -712,7 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1048,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7543AB1E-33CF-4EAF-8E02-B187A0443906}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1078,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -1100,9 +1090,9 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -1114,9 +1104,9 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1128,9 +1118,9 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
@@ -1139,9 +1129,9 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -1150,9 +1140,9 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
@@ -1161,9 +1151,9 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -1172,9 +1162,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
@@ -1183,9 +1173,9 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
@@ -1194,9 +1184,9 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
@@ -1205,9 +1195,9 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
@@ -1216,9 +1206,9 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
@@ -1227,9 +1217,9 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
@@ -1238,9 +1228,9 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
@@ -1249,9 +1239,9 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
@@ -1260,9 +1250,9 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
@@ -1271,9 +1261,9 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
@@ -1282,9 +1272,9 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
@@ -1293,9 +1283,9 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
@@ -1304,9 +1294,9 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
@@ -1324,9 +1314,9 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
@@ -1338,9 +1328,9 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
@@ -1352,9 +1342,9 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
@@ -1366,9 +1356,9 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
@@ -1377,9 +1367,9 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
@@ -1388,9 +1378,9 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
@@ -1399,9 +1389,9 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
@@ -1410,17 +1400,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
@@ -1441,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1455,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1469,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1483,7 +1473,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -1494,10 +1484,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1505,10 +1495,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1519,7 +1509,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -1533,7 +1523,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
@@ -1589,7 +1579,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -1602,7 +1592,7 @@
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D47" t="s">
@@ -1611,7 +1601,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
@@ -1622,7 +1612,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -1633,7 +1623,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -1644,9 +1634,9 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D51" t="s">
@@ -1655,7 +1645,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -1688,7 +1678,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -1699,7 +1689,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -1710,7 +1700,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>52</v>
@@ -1721,7 +1711,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -1732,10 +1722,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -1749,7 +1739,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>55</v>
@@ -1763,9 +1753,9 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D62" t="s">
@@ -1777,10 +1767,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -1788,9 +1778,9 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D64" t="s">
@@ -1799,9 +1789,9 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D65" t="s">
@@ -1810,26 +1800,32 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>195</v>
+      <c r="B67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B68" t="s">
-        <v>61</v>
+      <c r="B68" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -1839,8 +1835,8 @@
       <c r="A69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B69" t="s">
-        <v>62</v>
+      <c r="B69" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -1850,145 +1846,145 @@
       <c r="A70" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B70" t="s">
-        <v>63</v>
+      <c r="B70" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B79" t="s">
-        <v>74</v>
+      <c r="B79" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>67</v>
+      <c r="E79" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>69</v>
+      <c r="E80" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" t="s">
-        <v>77</v>
+        <v>180</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B82" t="s">
-        <v>79</v>
+      <c r="B82" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -1998,8 +1994,8 @@
       <c r="A83" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B83" t="s">
-        <v>80</v>
+      <c r="B83" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -2007,32 +2003,32 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>83</v>
+      <c r="B85" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B86" t="s">
-        <v>84</v>
+      <c r="B86" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -2040,80 +2036,80 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>185</v>
       </c>
-      <c r="B87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="6"/>
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>67</v>
+      <c r="E90" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
+      <c r="A91" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>69</v>
+      <c r="E91" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -2121,10 +2117,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -2132,10 +2128,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2143,10 +2139,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -2154,21 +2150,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>104</v>
+      <c r="A98" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -2176,10 +2172,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -2187,10 +2183,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -2198,10 +2194,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -2209,10 +2205,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2220,10 +2216,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -2231,10 +2227,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -2242,55 +2238,96 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" xr:uid="{C5BB177C-2F4B-4908-BEC8-7C69E4E092A8}"/>
-    <hyperlink ref="B90" r:id="rId2" xr:uid="{CAC3A1DC-B378-4B5A-9AA1-38BDEBA4C139}"/>
+    <hyperlink ref="B89" r:id="rId2" xr:uid="{CAC3A1DC-B378-4B5A-9AA1-38BDEBA4C139}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{5DF848F5-7757-4BB0-BE2C-AEF975C53CB4}"/>
-    <hyperlink ref="B74" r:id="rId4" display="https://banco.itau.co/web/personas/inversiones/fondo-corto-plazo" xr:uid="{35D14042-BC36-4A33-9837-551B85A4289D}"/>
-    <hyperlink ref="B34" r:id="rId5" xr:uid="{4ECDF3B1-B63D-43B1-AC03-F28A551CCB30}"/>
-    <hyperlink ref="B35" r:id="rId6" xr:uid="{D17B9DCD-8B1F-4BC8-95D8-43AAB2E80DC1}"/>
-    <hyperlink ref="B36" r:id="rId7" xr:uid="{B8E6A040-92BC-4559-87A1-BBAF6B598B7B}"/>
-    <hyperlink ref="B37" r:id="rId8" xr:uid="{D937B5A3-2FDE-48BF-A2BF-A556F2F3856B}"/>
-    <hyperlink ref="B38" r:id="rId9" xr:uid="{5BEC7ABE-C180-4D26-950B-EB3258BBA8E5}"/>
-    <hyperlink ref="B39" r:id="rId10" xr:uid="{24784703-9EE1-486B-BF42-D0A3F12D317A}"/>
-    <hyperlink ref="B40" r:id="rId11" xr:uid="{E56FE9A2-ABE1-4D37-A481-1297C2A558D2}"/>
-    <hyperlink ref="B91" r:id="rId12" xr:uid="{8CA878D1-43C2-4CC6-8AF4-3B45969249E2}"/>
-    <hyperlink ref="B92" r:id="rId13" xr:uid="{8CED2032-EE2F-4091-B684-E5B278DD916E}"/>
-    <hyperlink ref="B93" r:id="rId14" xr:uid="{FBCD77CD-4D0E-4443-AD74-3A382FB267C7}"/>
-    <hyperlink ref="B94" r:id="rId15" xr:uid="{B5D3063C-0F0C-4289-954F-9C23419E855E}"/>
-    <hyperlink ref="B95" r:id="rId16" xr:uid="{4A122B4E-5457-43B1-B1BE-F246FD1E275C}"/>
-    <hyperlink ref="B96" r:id="rId17" xr:uid="{18DF4C54-DF4A-45B5-A904-28D51CEA6460}"/>
-    <hyperlink ref="B97" r:id="rId18" xr:uid="{AEA14052-498D-4096-BFBB-2710E2B2B501}"/>
-    <hyperlink ref="B98" r:id="rId19" xr:uid="{6F20AEA4-8DED-4688-AA29-EAE98BB36260}"/>
-    <hyperlink ref="B99" r:id="rId20" xr:uid="{4AEEC0BB-8C90-44C0-8407-F9822E94FD0D}"/>
-    <hyperlink ref="B100" r:id="rId21" xr:uid="{83E864C3-31CF-4701-950B-3B4B73375F6D}"/>
-    <hyperlink ref="B101" r:id="rId22" xr:uid="{09DE1379-D803-4A2C-9A41-41029DC03436}"/>
-    <hyperlink ref="B102" r:id="rId23" xr:uid="{72614A3D-F4E2-4056-A57B-DB5A612BDA01}"/>
-    <hyperlink ref="B103" r:id="rId24" xr:uid="{C7082392-E449-44E7-BFDF-9268F47E635F}"/>
-    <hyperlink ref="B104" r:id="rId25" xr:uid="{9874D0F9-6F9A-4DB2-95D8-AFD67A4162E7}"/>
-    <hyperlink ref="B105" r:id="rId26" xr:uid="{11B2A6BA-C2D0-4016-9C39-F6D7D16EA16E}"/>
-    <hyperlink ref="B106" r:id="rId27" xr:uid="{5BEF3F52-EFED-4938-B9EE-524A49B9D2D1}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{4ECDF3B1-B63D-43B1-AC03-F28A551CCB30}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{D17B9DCD-8B1F-4BC8-95D8-43AAB2E80DC1}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{B8E6A040-92BC-4559-87A1-BBAF6B598B7B}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{D937B5A3-2FDE-48BF-A2BF-A556F2F3856B}"/>
+    <hyperlink ref="B38" r:id="rId8" xr:uid="{5BEC7ABE-C180-4D26-950B-EB3258BBA8E5}"/>
+    <hyperlink ref="B39" r:id="rId9" xr:uid="{24784703-9EE1-486B-BF42-D0A3F12D317A}"/>
+    <hyperlink ref="B40" r:id="rId10" xr:uid="{E56FE9A2-ABE1-4D37-A481-1297C2A558D2}"/>
+    <hyperlink ref="B90" r:id="rId11" xr:uid="{8CA878D1-43C2-4CC6-8AF4-3B45969249E2}"/>
+    <hyperlink ref="B91" r:id="rId12" xr:uid="{8CED2032-EE2F-4091-B684-E5B278DD916E}"/>
+    <hyperlink ref="B92" r:id="rId13" xr:uid="{FBCD77CD-4D0E-4443-AD74-3A382FB267C7}"/>
+    <hyperlink ref="B93" r:id="rId14" xr:uid="{B5D3063C-0F0C-4289-954F-9C23419E855E}"/>
+    <hyperlink ref="B94" r:id="rId15" xr:uid="{4A122B4E-5457-43B1-B1BE-F246FD1E275C}"/>
+    <hyperlink ref="B95" r:id="rId16" xr:uid="{18DF4C54-DF4A-45B5-A904-28D51CEA6460}"/>
+    <hyperlink ref="B96" r:id="rId17" xr:uid="{AEA14052-498D-4096-BFBB-2710E2B2B501}"/>
+    <hyperlink ref="B97" r:id="rId18" xr:uid="{6F20AEA4-8DED-4688-AA29-EAE98BB36260}"/>
+    <hyperlink ref="B98" r:id="rId19" xr:uid="{4AEEC0BB-8C90-44C0-8407-F9822E94FD0D}"/>
+    <hyperlink ref="B99" r:id="rId20" xr:uid="{83E864C3-31CF-4701-950B-3B4B73375F6D}"/>
+    <hyperlink ref="B100" r:id="rId21" xr:uid="{09DE1379-D803-4A2C-9A41-41029DC03436}"/>
+    <hyperlink ref="B101" r:id="rId22" xr:uid="{72614A3D-F4E2-4056-A57B-DB5A612BDA01}"/>
+    <hyperlink ref="B102" r:id="rId23" xr:uid="{C7082392-E449-44E7-BFDF-9268F47E635F}"/>
+    <hyperlink ref="B103" r:id="rId24" xr:uid="{9874D0F9-6F9A-4DB2-95D8-AFD67A4162E7}"/>
+    <hyperlink ref="B104" r:id="rId25" xr:uid="{11B2A6BA-C2D0-4016-9C39-F6D7D16EA16E}"/>
+    <hyperlink ref="B105" r:id="rId26" xr:uid="{5BEF3F52-EFED-4938-B9EE-524A49B9D2D1}"/>
+    <hyperlink ref="B62" r:id="rId27" xr:uid="{0BC36F66-0113-43C0-A77D-4136485BAFC1}"/>
+    <hyperlink ref="B3" r:id="rId28" xr:uid="{9493ABF8-13ED-4F09-B07B-8D6BC11A8D3B}"/>
+    <hyperlink ref="B4" r:id="rId29" xr:uid="{4EA5790C-2F39-4B9D-9432-2CB1B38BF1EF}"/>
+    <hyperlink ref="B5" r:id="rId30" xr:uid="{B006DF5F-D90A-4F32-ADA0-C56B098EE7B4}"/>
+    <hyperlink ref="B6" r:id="rId31" xr:uid="{461E50FB-0B1E-4F87-9285-9E1A1A0A8160}"/>
+    <hyperlink ref="B7" r:id="rId32" xr:uid="{F2395B1B-F900-4F66-AF87-11D4DE86CB9F}"/>
+    <hyperlink ref="B8" r:id="rId33" xr:uid="{C6CD13A1-A422-44E3-9EBA-0EB5A61C1C27}"/>
+    <hyperlink ref="B9" r:id="rId34" xr:uid="{B542B6B6-45EE-40CD-86FA-D83D13255859}"/>
+    <hyperlink ref="B10" r:id="rId35" xr:uid="{E82419D6-086D-4332-9E45-7F83D907D2AA}"/>
+    <hyperlink ref="B11" r:id="rId36" xr:uid="{0BD45D7F-A4B8-40C0-AE0F-0B559F940795}"/>
+    <hyperlink ref="B12" r:id="rId37" xr:uid="{B6119510-7BB1-4207-A730-A70347E06EB8}"/>
+    <hyperlink ref="B13" r:id="rId38" xr:uid="{C5F48428-3C78-4230-B491-E01D47653222}"/>
+    <hyperlink ref="B14" r:id="rId39" xr:uid="{9C9E51C4-1162-4172-9399-E6E41AC734F7}"/>
+    <hyperlink ref="B15" r:id="rId40" xr:uid="{349CE239-4CA5-46A0-8DB3-18F02011CC77}"/>
+    <hyperlink ref="B16" r:id="rId41" xr:uid="{B22FD339-8B27-45C3-93D3-E64CAF3A5C0C}"/>
+    <hyperlink ref="B17" r:id="rId42" xr:uid="{E806353E-EECC-4588-9F3E-8CF21F94F83F}"/>
+    <hyperlink ref="B18" r:id="rId43" xr:uid="{D75FB60D-F83A-450B-8BF0-546AA498CDAF}"/>
+    <hyperlink ref="B19" r:id="rId44" xr:uid="{FA058277-B271-4581-9DF7-55A54890AC7D}"/>
+    <hyperlink ref="B20" r:id="rId45" xr:uid="{7A3554F9-6462-4C59-8ECA-A0215BF29B5F}"/>
+    <hyperlink ref="B21" r:id="rId46" xr:uid="{E0744E92-57CD-4F21-9D40-68C0FDB04355}"/>
+    <hyperlink ref="B22" r:id="rId47" xr:uid="{DB41D4F0-AE2E-4922-8193-9C09A2EF8C43}"/>
+    <hyperlink ref="B24" r:id="rId48" xr:uid="{1BAA539A-6A4B-43BE-AE0F-CA5DC0EAD81E}"/>
+    <hyperlink ref="B25" r:id="rId49" xr:uid="{5C5084FA-79A7-4D50-BD93-8A9E8EFD9562}"/>
+    <hyperlink ref="B26" r:id="rId50" xr:uid="{FC6D4C03-819E-4BBE-8D26-D7ECA7FFBCDA}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{01AD96ED-7C35-4B94-B49F-A08B84920E3B}"/>
+    <hyperlink ref="B28" r:id="rId52" xr:uid="{C3DDC01D-9D4A-4F6D-BD9B-BE5695C04040}"/>
+    <hyperlink ref="B29" r:id="rId53" xr:uid="{97D40EAC-83FA-4CF7-BD9F-3EE9528920E8}"/>
+    <hyperlink ref="B30" r:id="rId54" xr:uid="{545C7176-D66B-4DD9-A308-054B164E6FF3}"/>
+    <hyperlink ref="B31" r:id="rId55" xr:uid="{EF27E5D7-3412-4AA0-9375-3456A3962B19}"/>
+    <hyperlink ref="B32" r:id="rId56" xr:uid="{61AC0D1C-A790-4A9D-BCC8-A5CAF37C0EE6}"/>
+    <hyperlink ref="B47" r:id="rId57" display="https://www.daviviendacorredores.com/wps/portal/corredores/enlaces/fondos-inversion/documentos_relacionados/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizQJM3Q09LIz8LMwDDA0CA_xCDEyCzQwNLEz0w8EKDHAARwP9KGL041EQhd94L7wWuJuCfGBU5Ovsm64fVZBYkqGbmZeWrx-Rlp-Xkg9kl6QWpRYDHRFFyBg0Bf7u_qYGgYZO3s6GgU5Goa7mUAV4XFqQGxpR5ZMW7JmuqAgACPM1IQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh" xr:uid="{1686EF12-D62A-4FCF-879C-5BD16DD4DA24}"/>
+    <hyperlink ref="B51" r:id="rId58" display="https://fidudavivienda.davivienda.com/wps/portal/fidudavivienda/inicio/F_Productos_y_Servicios/F_Carteras_Colectivas/daviplusrentafijapesos/!ut/p/z1/pVJNc4IwEP0r9OBRE_kKHMEiglgdRZFcnDRATUcCAmrbX9_ATL3JONO97e57b9_uLMBgDzAnV_ZBGlZwchJ5jPWDAt3gzbflxcTYGNDyjNcQrhwFzjUQdQDVRcuZOV0vLH2mQi9UPWfprBQYQoD_ww_Qc3z4IKwn5_cAcL_8DsRTEOsZCX4sIYY7fN85egHtvh3AMsLNbu6OoWtqMvRWgR1ubai4_p9CjyUfYPaej240H8GRrGuyjGSkIWSaCtJUENl3v7FYHj1cfjIG0ZWlN7DlRZWLZ9iA2L1zZ92g_tuJ72Gf5zO2AKYFb9KvBuyFrUPGkksi3kyo84QM4LHI07ZGGamYyDswZ0lRD2BZFaLRFLX0LdVpdWWUteWWXp4utVRl5QAyngmLaS1ljBNOWVp1-IzRI6mlJqWcUVKDMt-K4PrayRbD2B-6kfXyC7ZJJmE!/dz/d5/L2dBISEvZ0FBIS9nQSEh" xr:uid="{95388FEB-B19F-48A9-9ABE-A12257885AAF}"/>
+    <hyperlink ref="B64" r:id="rId59" xr:uid="{12B752F1-A197-4392-9186-07ABD1D535C8}"/>
+    <hyperlink ref="B65" r:id="rId60" xr:uid="{AF2F3D2C-D530-46DD-A44D-DE817F9451B8}"/>
+    <hyperlink ref="B66" r:id="rId61" xr:uid="{2847163A-4691-47A1-B749-367139EF85A2}"/>
+    <hyperlink ref="B67" r:id="rId62" xr:uid="{3D88022D-EE0B-42B8-9DFD-83B10A361F28}"/>
+    <hyperlink ref="B68" r:id="rId63" xr:uid="{154F42E8-6F0E-43D2-9EEE-57608FB982E1}"/>
+    <hyperlink ref="B69" r:id="rId64" xr:uid="{0F3C5467-E0E2-4D05-8F5C-40382CCB062E}"/>
+    <hyperlink ref="B70" r:id="rId65" xr:uid="{89957A8B-5B94-4EB1-AD48-F22D07BFB375}"/>
+    <hyperlink ref="B74" r:id="rId66" xr:uid="{F11B852F-82A2-431D-935F-261467C69091}"/>
+    <hyperlink ref="B75" r:id="rId67" xr:uid="{A285A89A-7971-46D6-9698-3DFD914FD067}"/>
+    <hyperlink ref="B76" r:id="rId68" xr:uid="{F83282CB-BF33-4771-B95F-CFF38B476901}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{E64ED1DB-12E2-454C-AA9B-537D54B60A3B}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{D5B623C6-6726-4242-9C97-0466DA8CA3B9}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{5011D6F7-C184-4FE6-BD03-1BC3936BF87C}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{5B49BF8B-736F-4C3B-B50B-17775845599F}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{462186A7-5BE3-4974-B95B-FE2342EF9A7B}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{7E40B056-3335-4AE4-83A1-5E706CE0E2D5}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{A5E2696F-212A-4CD6-B908-C00C73909382}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{113009DD-CD32-420E-A151-7416BD7ABF51}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{72AA9618-49BA-4FB8-A6B3-C2EC778910AF}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{2F7438DA-20D7-4BD3-9916-34CFD4FB5629}"/>
+    <hyperlink ref="B73" r:id="rId79" xr:uid="{FAE18696-0FA9-440D-9F56-683F344C30C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
